--- a/data.xlsx
+++ b/data.xlsx
@@ -1,40 +1,278 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File system\@Проекты\2022 Квест для Н\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF7CB3D-CC9F-43F6-AAD9-8E238AC5ACB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{24FF81A9-1933-4047-A838-4B89097F9827}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Station data" sheetId="1" r:id="rId1"/>
+    <sheet name="User's data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Проверка</t>
-  </si>
-  <si>
-    <t>Команды</t>
-  </si>
-  <si>
-    <t>Данные</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+  <si>
+    <t>Station data 2022.10.12 06:00:03</t>
+  </si>
+  <si>
+    <t>Hight</t>
+  </si>
+  <si>
+    <t>Linear speed</t>
+  </si>
+  <si>
+    <t>Temperature around</t>
+  </si>
+  <si>
+    <t>Engine presure</t>
+  </si>
+  <si>
+    <t>Cargo weight</t>
+  </si>
+  <si>
+    <t>Fuel weight</t>
+  </si>
+  <si>
+    <t>8500 meters per hour</t>
+  </si>
+  <si>
+    <t>29648 killometer</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>10,4 megapascals</t>
+  </si>
+  <si>
+    <t>4697 killograms</t>
+  </si>
+  <si>
+    <t>912 killograms</t>
+  </si>
+  <si>
+    <t>User's data</t>
+  </si>
+  <si>
+    <t>Cargo's number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date of dispatch</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Phon Chank</t>
+  </si>
+  <si>
+    <t>39.057001, 117.252160</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>NO DATA</t>
+  </si>
+  <si>
+    <t>Marko Rufallo</t>
+  </si>
+  <si>
+    <t>40.455182, 17.381175</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Works of art</t>
+  </si>
+  <si>
+    <t>Pedrino Aldo</t>
+  </si>
+  <si>
+    <t>-28.647749, -65.721848</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Briliants</t>
+  </si>
+  <si>
+    <t>Piter Parker</t>
+  </si>
+  <si>
+    <t>!930GUB$</t>
+  </si>
+  <si>
+    <t>Ah1^8*dba</t>
+  </si>
+  <si>
+    <t>Spider man's sute</t>
+  </si>
+  <si>
+    <t>59.910588, 10.781065</t>
+  </si>
+  <si>
+    <t>Data is destroyed</t>
+  </si>
+  <si>
+    <t>Alexey Derepaska</t>
+  </si>
+  <si>
+    <t>55.751921, 37.619018</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Family photos, documents</t>
+  </si>
+  <si>
+    <t>Nik fon Neyman</t>
+  </si>
+  <si>
+    <t>52.423273, 13.495353</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Fascist archives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Felix Nesterov</t>
+  </si>
+  <si>
+    <t>53.894855, -122.760275</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chen Li</t>
+  </si>
+  <si>
+    <t>36.570157, 127.504247</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Fried chicken, national food</t>
+  </si>
+  <si>
+    <t>G45Hnp%$%</t>
+  </si>
+  <si>
+    <t>Don##45 T798p</t>
+  </si>
+  <si>
+    <t>1^/89/2077</t>
+  </si>
+  <si>
+    <t>7.999713, 168.868801</t>
+  </si>
+  <si>
+    <t>Roman Kingdom</t>
+  </si>
+  <si>
+    <t>Stan Li</t>
+  </si>
+  <si>
+    <t>40.748878, -73.983077</t>
+  </si>
+  <si>
+    <t>the USA</t>
+  </si>
+  <si>
+    <t>Marvel comics</t>
+  </si>
+  <si>
+    <t>Subotina Ksenia</t>
+  </si>
+  <si>
+    <t>34.774842, 135.338017</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Hair Dye, Red Tie</t>
+  </si>
+  <si>
+    <t>Osipov Vladislave</t>
+  </si>
+  <si>
+    <t>14.668720, 77.598550</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Code of telegram-bot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +280,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -59,12 +346,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -99,7 +454,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -111,7 +466,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -158,6 +513,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -193,6 +565,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -344,31 +733,551 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF49AC74-231C-4FC6-99B4-2B92F9923668}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="87.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC143B7-6BB2-4670-B742-FE27C72C16E1}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>75249600</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43504</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>12102006</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43532</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>55556974</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44425</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9">
+        <v>44089</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44616</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>78151290</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43960</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>21155993</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9">
+        <v>44406</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>18197887</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="9">
+        <v>44842</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>55005321</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="9">
+        <v>44508</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>55005331</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="14">
+        <v>44561</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>100000</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43947</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File system\@Проекты\2022 Квест для Н\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artemka\PycharmProjects\Sirius12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF7CB3D-CC9F-43F6-AAD9-8E238AC5ACB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD99468D-C896-4A97-A2A5-F46FFC5C9E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{24FF81A9-1933-4047-A838-4B89097F9827}"/>
   </bookViews>
   <sheets>
-    <sheet name="Station data" sheetId="1" r:id="rId1"/>
-    <sheet name="User's data" sheetId="2" r:id="rId2"/>
+    <sheet name="User's data" sheetId="2" r:id="rId1"/>
+    <sheet name="Station data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -386,9 +386,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -397,9 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +413,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,138 +733,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF49AC74-231C-4FC6-99B4-2B92F9923668}">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="87.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC143B7-6BB2-4670-B742-FE27C72C16E1}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -879,172 +751,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>75249600</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43504</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>12102006</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>43532</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>55556974</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>44425</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>44089</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>44616</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>78151290</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43960</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>21155993</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>44406</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H9" t="s">
@@ -1052,227 +924,227 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>18197887</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>44842</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>55005321</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>44508</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>55005331</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>44561</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>100000</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>43947</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1280,4 +1152,132 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF49AC74-231C-4FC6-99B4-2B92F9923668}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="87.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>